--- a/yaya类属性含义.xlsx
+++ b/yaya类属性含义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>DmNetworkInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,62 @@
   </si>
   <si>
     <t>SSID_TYPE_NORMAL=0;SSID_TYPE_EXCHANGE=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App中显示的名称，设备型号或用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态IP地址第三段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC地址的缩略值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是Wifi Direct热点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是自动密码*（不太明白）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,17 +309,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -657,34 +713,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -764,13 +820,13 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -783,11 +839,15 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
@@ -798,11 +858,15 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
@@ -813,11 +877,15 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
@@ -832,11 +900,15 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
@@ -847,11 +919,15 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
@@ -862,11 +938,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -877,11 +957,15 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
@@ -889,106 +973,110 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>

--- a/yaya类属性含义.xlsx
+++ b/yaya类属性含义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>DmNetworkInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,196 @@
   </si>
   <si>
     <t>是否是自动密码*（不太明白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmTopAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentBytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前下载的字节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloadId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appName+".apk"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PackageInfo.packageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PackageInfo.ApplicationInfo.sourceDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>componentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地App属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        FileItem fileItem = new FileItem(new DmFileCategory(
+                DmFileCategory.CATEGORY_APP, DmFileCategory.APP_SUB_COMMON));
+        fileItem.verCode = pluginInfo.getVersionCode();
+        fileItem.verName = "";
+        fileItem.pkgName = pluginInfo.pkgName;
+        fileItem.title = pluginInfo.title;
+        if (fileItem.title.endsWith(".apk")) {
+            fileItem.displayTitle = fileItem.title.replace(".apk", "");
+        }
+        fileItem.path = pluginInfo.installPath;
+        fileItem.url = pluginInfo.pkgName;
+        fileItem.thumbUrl = pluginInfo.pkgName;
+        fileItem.size = pluginInfo.size;
+        fileItem.date = 0;
+        fileItem.pluginInfo = pluginInfo;
+        fileItem.isTop4 = true;
+        fileItem.id = pluginInfo.pluginId;
+        return fileItem;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,19 +493,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,6 +597,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -713,68 +1050,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
@@ -782,117 +1119,117 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6"/>
@@ -900,86 +1237,86 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="5"/>
@@ -987,96 +1324,96 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1089,26 +1426,335 @@
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:7" ht="178.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A53:C62"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E15:G24"/>
     <mergeCell ref="I4:K13"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
